--- a/c宠物.xlsx
+++ b/c宠物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21756" windowHeight="8507" tabRatio="541"/>
+    <workbookView windowWidth="22368" windowHeight="9947" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="宠物_Pet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>宠物ID</t>
   </si>
@@ -98,9 +98,6 @@
     <t>紫月寒锦</t>
   </si>
   <si>
-    <t>30天</t>
-  </si>
-  <si>
     <t>日暖金鲤</t>
   </si>
   <si>
@@ -148,90 +145,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -246,7 +168,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +213,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -268,10 +243,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,16 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,18 +324,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,7 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +348,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,49 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,49 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,21 +528,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -568,16 +543,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,11 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,137 +635,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,13 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1145,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1171,7 +1155,8 @@
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
     <col min="4" max="4" width="8.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="10.7777777777778" customWidth="1"/>
-    <col min="6" max="7" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
     <col min="8" max="10" width="10.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
   </cols>
@@ -1327,11 +1312,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
+      <c r="E5" s="5">
+        <v>30</v>
       </c>
-      <c r="F5" s="8">
-        <v>0.1</v>
+      <c r="F5" s="7">
+        <v>10</v>
       </c>
       <c r="G5">
         <v>621</v>
@@ -17727,7 +17712,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>102</v>
@@ -17735,11 +17720,11 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
+      <c r="E6">
+        <v>30</v>
       </c>
-      <c r="F6" s="8">
-        <v>0.11</v>
+      <c r="F6" s="7">
+        <v>11</v>
       </c>
       <c r="G6">
         <v>1254</v>
@@ -34135,7 +34120,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -34143,11 +34128,11 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
+      <c r="E7">
+        <v>30</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.13</v>
+      <c r="F7" s="7">
+        <v>13</v>
       </c>
       <c r="G7">
         <v>2553</v>
@@ -34170,7 +34155,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>104</v>
@@ -34178,11 +34163,11 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
+      <c r="E8">
+        <v>30</v>
       </c>
-      <c r="F8" s="8">
-        <v>0.15</v>
+      <c r="F8" s="7">
+        <v>15</v>
       </c>
       <c r="G8">
         <v>5198</v>
@@ -34205,7 +34190,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>105</v>
@@ -34213,11 +34198,11 @@
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
+      <c r="E9" s="5">
+        <v>30</v>
       </c>
-      <c r="F9" s="9">
-        <v>0.18</v>
+      <c r="F9" s="7">
+        <v>18</v>
       </c>
       <c r="G9" s="5">
         <v>10667</v>
@@ -34240,7 +34225,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>106</v>
@@ -34248,11 +34233,11 @@
       <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
+      <c r="E10" s="5">
+        <v>30</v>
       </c>
-      <c r="F10" s="9">
-        <v>0.21</v>
+      <c r="F10" s="7">
+        <v>21</v>
       </c>
       <c r="G10" s="5">
         <v>21876</v>
@@ -34275,7 +34260,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>107</v>
@@ -34283,11 +34268,11 @@
       <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
+      <c r="E11" s="5">
+        <v>30</v>
       </c>
-      <c r="F11" s="9">
-        <v>0.24</v>
+      <c r="F11" s="7">
+        <v>24</v>
       </c>
       <c r="G11" s="5">
         <v>44838</v>
@@ -34310,7 +34295,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>108</v>
@@ -34318,11 +34303,11 @@
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
+      <c r="E12" s="5">
+        <v>30</v>
       </c>
-      <c r="F12" s="9">
-        <v>0.28</v>
+      <c r="F12" s="7">
+        <v>28</v>
       </c>
       <c r="G12" s="5">
         <v>92569</v>
@@ -34345,7 +34330,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>109</v>
@@ -34353,11 +34338,11 @@
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
+      <c r="E13" s="5">
+        <v>30</v>
       </c>
-      <c r="F13" s="9">
-        <v>0.32</v>
+      <c r="F13" s="7">
+        <v>32</v>
       </c>
       <c r="G13" s="5">
         <v>190924</v>
@@ -34380,7 +34365,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>110</v>
@@ -34388,11 +34373,11 @@
       <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
+      <c r="E14" s="5">
+        <v>30</v>
       </c>
-      <c r="F14" s="9">
-        <v>0.36</v>
+      <c r="F14" s="7">
+        <v>36</v>
       </c>
       <c r="G14" s="5">
         <v>393420</v>
@@ -34415,7 +34400,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -34423,11 +34408,11 @@
       <c r="D15" s="5">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
+      <c r="E15" s="5">
+        <v>30</v>
       </c>
-      <c r="F15" s="9">
-        <v>0.4</v>
+      <c r="F15" s="7">
+        <v>40</v>
       </c>
       <c r="G15" s="5">
         <v>809984</v>
@@ -34450,7 +34435,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>112</v>
@@ -34458,11 +34443,11 @@
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>27</v>
+      <c r="E16" s="5">
+        <v>30</v>
       </c>
-      <c r="F16" s="9">
-        <v>0.45</v>
+      <c r="F16" s="7">
+        <v>45</v>
       </c>
       <c r="G16" s="5">
         <v>1677824</v>
@@ -34485,7 +34470,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>113</v>
@@ -34493,11 +34478,11 @@
       <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
+      <c r="E17" s="5">
+        <v>30</v>
       </c>
-      <c r="F17" s="9">
-        <v>0.5</v>
+      <c r="F17" s="7">
+        <v>50</v>
       </c>
       <c r="G17" s="5">
         <v>3471360</v>
@@ -34520,7 +34505,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>114</v>
@@ -34528,11 +34513,11 @@
       <c r="D18" s="5">
         <v>14</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>27</v>
+      <c r="E18" s="5">
+        <v>30</v>
       </c>
-      <c r="F18" s="9">
-        <v>0.55</v>
+      <c r="F18" s="7">
+        <v>55</v>
       </c>
       <c r="G18" s="5">
         <v>7174144</v>
@@ -34555,7 +34540,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>115</v>
@@ -34563,11 +34548,11 @@
       <c r="D19" s="5">
         <v>15</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>27</v>
+      <c r="E19" s="5">
+        <v>30</v>
       </c>
-      <c r="F19" s="9">
-        <v>0.6</v>
+      <c r="F19" s="7">
+        <v>60</v>
       </c>
       <c r="G19" s="5">
         <v>14811136</v>

--- a/c宠物.xlsx
+++ b/c宠物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="541"/>
+    <workbookView windowWidth="22343" windowHeight="9107" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="宠物_Pet" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,8 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,19 +182,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,31 +258,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,8 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +350,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +428,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,43 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,13 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,55 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,11 +526,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,17 +556,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,21 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,15 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,24 +1156,24 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.4" customWidth="1"/>
+    <col min="2" max="2" width="11.3981481481481" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
     <col min="4" max="4" width="8.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.775" customWidth="1"/>
+    <col min="5" max="5" width="10.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="8.66666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="10" width="10.775" customWidth="1"/>
-    <col min="11" max="11" width="13.5916666666667" customWidth="1"/>
+    <col min="8" max="10" width="10.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="13.5925925925926" customWidth="1"/>
     <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:12">
+    <row r="1" ht="28.8" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>565</v>
+        <v>5</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -17761,7 +17761,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1130</v>
+        <v>10</v>
       </c>
       <c r="J6" s="6">
         <v>2</v>
@@ -34171,7 +34171,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2260</v>
+        <v>15</v>
       </c>
       <c r="J7" s="6">
         <v>3</v>
@@ -34209,7 +34209,7 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <v>4520</v>
+        <v>20</v>
       </c>
       <c r="J8" s="6">
         <v>4</v>
@@ -34246,8 +34246,8 @@
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="6">
-        <v>9040</v>
+      <c r="I9">
+        <v>25</v>
       </c>
       <c r="J9" s="6">
         <v>5</v>
@@ -34284,8 +34284,8 @@
       <c r="H10">
         <v>6</v>
       </c>
-      <c r="I10" s="6">
-        <v>18080</v>
+      <c r="I10">
+        <v>30</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
@@ -34322,8 +34322,8 @@
       <c r="H11">
         <v>7</v>
       </c>
-      <c r="I11" s="6">
-        <v>36160</v>
+      <c r="I11">
+        <v>35</v>
       </c>
       <c r="J11" s="6">
         <v>7</v>
@@ -34360,8 +34360,8 @@
       <c r="H12">
         <v>8</v>
       </c>
-      <c r="I12" s="6">
-        <v>72320</v>
+      <c r="I12">
+        <v>40</v>
       </c>
       <c r="J12" s="6">
         <v>8</v>
@@ -34398,8 +34398,8 @@
       <c r="H13">
         <v>9</v>
       </c>
-      <c r="I13" s="6">
-        <v>144640</v>
+      <c r="I13">
+        <v>45</v>
       </c>
       <c r="J13" s="6">
         <v>9</v>
@@ -34436,8 +34436,8 @@
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" s="6">
-        <v>289280</v>
+      <c r="I14">
+        <v>50</v>
       </c>
       <c r="J14" s="6">
         <v>10</v>
@@ -34474,8 +34474,8 @@
       <c r="H15">
         <v>11</v>
       </c>
-      <c r="I15" s="6">
-        <v>578560</v>
+      <c r="I15">
+        <v>55</v>
       </c>
       <c r="J15" s="6">
         <v>11</v>
@@ -34512,8 +34512,8 @@
       <c r="H16">
         <v>12</v>
       </c>
-      <c r="I16" s="6">
-        <v>1157120</v>
+      <c r="I16">
+        <v>60</v>
       </c>
       <c r="J16" s="6">
         <v>12</v>
@@ -34550,8 +34550,8 @@
       <c r="H17">
         <v>13</v>
       </c>
-      <c r="I17" s="6">
-        <v>2314240</v>
+      <c r="I17">
+        <v>65</v>
       </c>
       <c r="J17" s="6">
         <v>13</v>
@@ -34588,8 +34588,8 @@
       <c r="H18">
         <v>14</v>
       </c>
-      <c r="I18" s="6">
-        <v>4628480</v>
+      <c r="I18">
+        <v>70</v>
       </c>
       <c r="J18" s="6">
         <v>14</v>
@@ -34626,8 +34626,8 @@
       <c r="H19">
         <v>15</v>
       </c>
-      <c r="I19" s="6">
-        <v>9256960</v>
+      <c r="I19">
+        <v>75</v>
       </c>
       <c r="J19" s="6">
         <v>15</v>
@@ -34694,7 +34694,7 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/c宠物.xlsx
+++ b/c宠物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15060" windowHeight="8507" tabRatio="541"/>
+    <workbookView windowWidth="23040" windowHeight="9947" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="宠物_Pet" sheetId="1" r:id="rId1"/>
@@ -101,49 +101,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>紫月寒锦</t>
+    <t>CN_309</t>
   </si>
   <si>
-    <t>日暖金鲤</t>
+    <t>CN_310</t>
   </si>
   <si>
-    <t>怒涛甲威</t>
+    <t>CN_311</t>
   </si>
   <si>
-    <t>潇飒锦</t>
+    <t>CN_312</t>
   </si>
   <si>
-    <t>惊鸿影豚</t>
+    <t>CN_313</t>
   </si>
   <si>
-    <t>怒涛辰鲸</t>
+    <t>CN_314</t>
   </si>
   <si>
-    <t>舟归角鲸</t>
+    <t>CN_315</t>
   </si>
   <si>
-    <t>星辰赤角</t>
+    <t>CN_316</t>
   </si>
   <si>
-    <t>海寄威阁</t>
+    <t>CN_317</t>
   </si>
   <si>
-    <t>鬓霜翅锦</t>
+    <t>CN_318</t>
   </si>
   <si>
-    <t>伴雾灯语</t>
+    <t>CN_319</t>
   </si>
   <si>
-    <t>煞落蛟</t>
+    <t>CN_320</t>
   </si>
   <si>
-    <t>堤鲨暗仄</t>
+    <t>CN_321</t>
   </si>
   <si>
-    <t>揽星山河鲸</t>
+    <t>CN_322</t>
   </si>
   <si>
-    <t>萧怒龙威</t>
+    <t>CN_323</t>
   </si>
 </sst>
 </file>
@@ -151,10 +151,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,32 +172,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,14 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +241,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,38 +286,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,21 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +330,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,31 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,19 +456,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,103 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,45 +521,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,26 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +562,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,137 +641,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,9 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1157,7 +1154,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1326,7 +1323,7 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5">
@@ -1338,7 +1335,7 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>10</v>
       </c>
       <c r="G5">
@@ -17735,7 +17732,7 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6">
@@ -17747,17 +17744,17 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>11</v>
       </c>
       <c r="G6">
         <v>1254</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>10</v>
       </c>
-      <c r="I6" s="8">
-        <v>100</v>
+      <c r="I6" s="7">
+        <v>50</v>
       </c>
       <c r="J6" s="5">
         <v>2</v>
@@ -34144,7 +34141,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7">
@@ -34156,16 +34153,16 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>13</v>
       </c>
       <c r="G7">
         <v>2553</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>20</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>200</v>
       </c>
       <c r="J7" s="5">
@@ -34182,7 +34179,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8">
@@ -34194,16 +34191,16 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>15</v>
       </c>
       <c r="G8">
         <v>5198</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>30</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>500</v>
       </c>
       <c r="J8" s="5">
@@ -34220,7 +34217,7 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9">
@@ -34232,16 +34229,16 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>18</v>
       </c>
       <c r="G9" s="5">
         <v>10667</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>50</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>1000</v>
       </c>
       <c r="J9" s="5">
@@ -34258,7 +34255,7 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10">
@@ -34270,7 +34267,7 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>21</v>
       </c>
       <c r="G10" s="5">
@@ -34296,7 +34293,7 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11">
@@ -34308,7 +34305,7 @@
       <c r="E11" s="5">
         <v>7</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>24</v>
       </c>
       <c r="G11" s="5">
@@ -34334,7 +34331,7 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12">
@@ -34346,7 +34343,7 @@
       <c r="E12">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>28</v>
       </c>
       <c r="G12" s="5">
@@ -34372,7 +34369,7 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13">
@@ -34384,7 +34381,7 @@
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>32</v>
       </c>
       <c r="G13" s="5">
@@ -34410,7 +34407,7 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14">
@@ -34422,7 +34419,7 @@
       <c r="E14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>36</v>
       </c>
       <c r="G14" s="5">
@@ -34448,7 +34445,7 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15">
@@ -34460,7 +34457,7 @@
       <c r="E15">
         <v>11</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>40</v>
       </c>
       <c r="G15" s="5">
@@ -34486,7 +34483,7 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16">
@@ -34498,7 +34495,7 @@
       <c r="E16">
         <v>12</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>45</v>
       </c>
       <c r="G16" s="5">
@@ -34524,7 +34521,7 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17">
@@ -34536,7 +34533,7 @@
       <c r="E17" s="5">
         <v>13</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>50</v>
       </c>
       <c r="G17" s="5">
@@ -34562,7 +34559,7 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18">
@@ -34574,7 +34571,7 @@
       <c r="E18">
         <v>14</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>55</v>
       </c>
       <c r="G18" s="5">
@@ -34600,7 +34597,7 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19">
@@ -34612,7 +34609,7 @@
       <c r="E19">
         <v>15</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>60</v>
       </c>
       <c r="G19" s="5">

--- a/c宠物.xlsx
+++ b/c宠物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9947" tabRatio="541"/>
+    <workbookView windowWidth="23256" windowHeight="9647" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="宠物_Pet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>宠物ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>U购买价格</t>
+  </si>
+  <si>
+    <t>U购买数量</t>
   </si>
   <si>
     <t>购买价格</t>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>UBuyPrice</t>
+  </si>
+  <si>
+    <t>UBuyLimit</t>
   </si>
   <si>
     <t>price</t>
@@ -151,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,8 +171,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,8 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,13 +219,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +239,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -223,11 +254,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,63 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +336,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,43 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +414,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,19 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,49 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -556,9 +577,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,50 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,14 +1153,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC22"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1165,11 +1171,11 @@
     <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="11" width="10.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="12" width="10.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,125 +1212,139 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="L4" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16383">
+    <row r="5" spans="1:16384">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>101</v>
@@ -1354,9 +1374,11 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
         <v>565</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -17727,13 +17749,14 @@
       <c r="XFA5" s="5"/>
       <c r="XFB5" s="5"/>
       <c r="XFC5" s="5"/>
+      <c r="XFD5" s="5"/>
     </row>
-    <row r="6" spans="1:16383">
+    <row r="6" spans="1:16384">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -17762,10 +17785,12 @@
       <c r="K6" s="5">
         <v>13</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>1130</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -34136,13 +34161,14 @@
       <c r="XFA6" s="5"/>
       <c r="XFB6" s="5"/>
       <c r="XFC6" s="5"/>
+      <c r="XFD6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -34171,16 +34197,19 @@
       <c r="K7" s="5">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>2260</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>104</v>
@@ -34209,16 +34238,19 @@
       <c r="K8" s="5">
         <v>52</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>4520</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>105</v>
@@ -34248,15 +34280,18 @@
         <v>107</v>
       </c>
       <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
         <v>9040</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>106</v>
@@ -34286,15 +34321,18 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
         <v>18080</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>107</v>
@@ -34324,15 +34362,18 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <v>36160</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>108</v>
@@ -34362,15 +34403,18 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
         <v>72320</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>109</v>
@@ -34400,15 +34444,18 @@
         <v>0</v>
       </c>
       <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
         <v>144640</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>110</v>
@@ -34438,15 +34485,18 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
         <v>289280</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -34476,15 +34526,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
         <v>578560</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>112</v>
@@ -34514,15 +34567,18 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
         <v>1157120</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>113</v>
@@ -34552,15 +34608,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
         <v>2314240</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>114</v>
@@ -34590,15 +34649,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
         <v>4628480</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>115</v>
@@ -34628,10 +34690,13 @@
         <v>0</v>
       </c>
       <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
         <v>9256960</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:13">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -34643,8 +34708,9 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:13">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -34656,8 +34722,9 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:13">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -34669,6 +34736,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/c宠物.xlsx
+++ b/c宠物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647" tabRatio="541"/>
+    <workbookView windowWidth="21000" windowHeight="8507" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="宠物_Pet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>宠物ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>U购买价格</t>
+  </si>
+  <si>
+    <t>U活动价格</t>
   </si>
   <si>
     <t>U购买数量</t>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t>UBuyPrice</t>
+  </si>
+  <si>
+    <t>UActivePrice</t>
   </si>
   <si>
     <t>UBuyLimit</t>
@@ -157,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,17 +177,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,9 +215,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,25 +228,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,55 +282,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,8 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +342,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,19 +414,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,67 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,43 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,17 +536,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,31 +584,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +622,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,7 +1166,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1171,11 +1177,11 @@
     <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="12" width="10.7777777777778" customWidth="1"/>
-    <col min="13" max="13" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="13" width="10.7777777777778" customWidth="1"/>
+    <col min="14" max="14" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,128 +1221,140 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
@@ -1344,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>101</v>
@@ -1377,9 +1395,11 @@
         <v>0</v>
       </c>
       <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>565</v>
       </c>
-      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -17756,7 +17776,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -17786,12 +17806,14 @@
         <v>13</v>
       </c>
       <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1130</v>
       </c>
-      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -34163,12 +34185,12 @@
       <c r="XFC6" s="5"/>
       <c r="XFD6" s="5"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -34198,18 +34220,21 @@
         <v>26</v>
       </c>
       <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2260</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>104</v>
@@ -34239,18 +34264,21 @@
         <v>52</v>
       </c>
       <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4520</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>105</v>
@@ -34280,18 +34308,21 @@
         <v>107</v>
       </c>
       <c r="L9" s="5">
+        <v>180</v>
+      </c>
+      <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>9040</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>106</v>
@@ -34321,18 +34352,21 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
+        <v>360</v>
+      </c>
+      <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>18080</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>107</v>
@@ -34362,18 +34396,21 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
+        <v>720</v>
+      </c>
+      <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>36160</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>108</v>
@@ -34403,18 +34440,21 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
+        <v>1440</v>
+      </c>
+      <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>72320</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>109</v>
@@ -34447,15 +34487,18 @@
         <v>0</v>
       </c>
       <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
         <v>144640</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>110</v>
@@ -34488,15 +34531,18 @@
         <v>0</v>
       </c>
       <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
         <v>289280</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -34529,15 +34575,18 @@
         <v>0</v>
       </c>
       <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>578560</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>112</v>
@@ -34570,15 +34619,18 @@
         <v>0</v>
       </c>
       <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>1157120</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>113</v>
@@ -34611,15 +34663,18 @@
         <v>0</v>
       </c>
       <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
         <v>2314240</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>114</v>
@@ -34652,15 +34707,18 @@
         <v>0</v>
       </c>
       <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
         <v>4628480</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>115</v>
@@ -34693,10 +34751,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>9256960</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:14">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -34709,8 +34770,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:14">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -34723,8 +34785,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:14">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -34737,6 +34800,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/c宠物.xlsx
+++ b/c宠物.xlsx
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,14 +178,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,30 +239,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,16 +267,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,36 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -314,8 +307,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,24 +337,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,60 +390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,19 +420,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +478,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -533,24 +533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,6 +547,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +575,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,13 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,7 +1166,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -34308,7 +34308,7 @@
         <v>107</v>
       </c>
       <c r="L9" s="5">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
@@ -34352,7 +34352,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -34396,7 +34396,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -34440,7 +34440,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
